--- a/biology/Zoologie/Chrysopelea_rhodopleuron/Chrysopelea_rhodopleuron.xlsx
+++ b/biology/Zoologie/Chrysopelea_rhodopleuron/Chrysopelea_rhodopleuron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chrysopelea rhodopleuron  est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysopelea rhodopleuron  est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Indonésie. Elle se rencontre sur l'île d'Ambon et aux Célèbes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Indonésie. Elle se rencontre sur l'île d'Ambon et aux Célèbes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chrysopelea rhodopleuron est un serpent ovipare[1]. Comme les autres membres de ce genre, il est capable d'effectuer des vols planés en se lançant d'une branche pour se réceptionner sur une autre branche ou au sol.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysopelea rhodopleuron est un serpent ovipare. Comme les autres membres de ce genre, il est capable d'effectuer des vols planés en se lançant d'une branche pour se réceptionner sur une autre branche ou au sol.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Reptile Database   (13 février 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Reptile Database   (13 février 2014) :
 Chrysopelea rhodopleuron rhodopleuron Boie, 1827
 Chrysopelea rhodopleuron viridis Fischer, 1880
 Cette dernière sous-espèce n'est connue que par un spécimen qui a été détruit lors de la Seconde Guerre mondiale. Son statut n'est pas clair.
@@ -607,7 +625,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boie, 1827 : Bemerkungen über Merrem's Versuch eines Systems der Amphibien, 1. Lieferung: Ophidier. Isis von Oken, Jena, vol. 20, p. 508-566 (texte intégral)
 Fischer, 1880 : Neue Reptilien und Amphibien. Archiv für Naturgeschichte, vol. 46, no 1, p. 215-227 (texte intégral).</t>
